--- a/HMS/Controller/test.xlsx
+++ b/HMS/Controller/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>sharma</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>mohan</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>B+</t>
   </si>
 </sst>
 </file>
@@ -394,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,7 +413,7 @@
     <col min="9" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1122</v>
       </c>
@@ -438,8 +444,11 @@
       <c r="J1" s="2">
         <v>42768</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4512</v>
       </c>
@@ -469,6 +478,9 @@
       </c>
       <c r="J2" s="2">
         <v>43229</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/HMS/Controller/test.xlsx
+++ b/HMS/Controller/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\HMS\Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +415,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1122</v>
+        <v>7766</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4512</v>
+        <v>9098</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
